--- a/biology/Zoologie/Grisin_sombre/Grisin_sombre.xlsx
+++ b/biology/Zoologie/Grisin_sombre/Grisin_sombre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercomacroides tyrannina
 Le Grisin sombre (Cercomacroides tyrannina) est une espèce de passereaux de la famille des Thamnophilidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grisin sombre a une taille comprise entre 11 et 13 cm. Le mâle a le plumage noir avec une large tache dorsale blanche. La queue et les ailes, bordées de blanc, sont brunâtres. Le dessous est un peu plus pâle mais les flancs et le crissum sont plus sombres. La femelle a le plumage brun-olive avec les flancs et le crissum brunâtres.
 </t>
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit d'insectes qu'il attrape sur le feuillage, les rameaux et dans les fourrés.
 </t>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve du sud-est du Mexique à travers toute l'Amérique centrale, du centre de Panama à l'est de la Colombie, et du sud du Venezuela au nord-ouest du Brésil[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve du sud-est du Mexique à travers toute l'Amérique centrale, du centre de Panama à l'est de la Colombie, et du sud du Venezuela au nord-ouest du Brésil.
 Il vit à l'orée et dans les clairières des forêts humides ainsi que dans les plaines humides.
 </t>
         </is>
@@ -606,7 +624,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit nid profond est fait de fibres végétales et de feuilles mortes, suspendu à la fourche d'une fine branche. La femelle y pond 2 œufs qui sont couvés par les deux parents. Les petits sont également nourris par les deux parents.
 </t>
@@ -637,9 +657,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018) :
 Cercomacroides tyrannina crepera (Bangs, 1901)
 Cercomacroides tyrannina tyrannina (Sclater, 1855)
 Cercomacroides tyrannina vicina (Todd, 1927)
@@ -671,9 +693,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été transférée du genre Cercomacra au genre Cercomacroides par Tello, Raposo, Bates, Bravo, Cadena et Maldonado-Coelho en 2014[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été transférée du genre Cercomacra au genre Cercomacroides par Tello, Raposo, Bates, Bravo, Cadena et Maldonado-Coelho en 2014.
 </t>
         </is>
       </c>
